--- a/Execution cost estimate.xlsx
+++ b/Execution cost estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rob\Documents\Blockchain\Ronin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F0EF11-8535-4BD0-A276-EF39BFCEE1E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E5FD21-82A7-4846-B26B-30CAA3F36F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2328" windowWidth="17280" windowHeight="9420" xr2:uid="{D183D667-FDAD-4890-A219-7C035C28E694}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Cats</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Cost on Polygon</t>
+  </si>
+  <si>
+    <t>eth</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>2 x setHonourTokenAddress</t>
+  </si>
+  <si>
+    <t>3 x transferOwnership</t>
   </si>
 </sst>
 </file>
@@ -116,10 +128,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -435,15 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D430B5-FC7D-40EB-A04D-A68E7BD8951D}">
-  <dimension ref="B4:H14"/>
+  <dimension ref="B4:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
@@ -457,78 +470,121 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <f>2*46434</f>
+        <v>92868</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <f>29100*3</f>
+        <v>87300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>4716627</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H9">
         <f>10*284232</f>
         <v>2842320</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>3600257</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2973139</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="2">
-        <f>H6*65*0.000000001*3867</f>
-        <v>714.4313436000001</v>
-      </c>
-    </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3600257</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2973139</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="2">
+        <f>H9*65*0.000000001*3867</f>
+        <v>714.4313436000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <f>SUM(C6:C9)</f>
-        <v>11290023</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="C13">
+        <f>SUM(C6:C12)</f>
+        <v>11470191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2">
-        <f>H6*36*0.000000001*1.98</f>
+      <c r="H13" s="2">
+        <f>H9*36*0.000000001*1.98</f>
         <v>0.2026005696</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <f>C13*65*0.000000001</f>
+        <v>0.74556241500000009</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="2">
-        <f>C10*65*0.000000001*3867</f>
-        <v>2837.803731165</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="2">
+        <f>C13*65*0.000000001*3867</f>
+        <v>2883.0898588050004</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="2">
-        <f>C10*36*0.000000001*1.98</f>
-        <v>0.80475283944000009</v>
+      <c r="C17" s="2">
+        <f>C13*36*0.000000001*1.98</f>
+        <v>0.81759521447999994</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <f>(C13+H9)*65*0.000000001</f>
+        <v>0.93031321500000008</v>
+      </c>
+      <c r="H19" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
